--- a/csv_files/3_to_5/3_vs_5.xlsx
+++ b/csv_files/3_to_5/3_vs_5.xlsx
@@ -101,10 +101,10 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -523,11 +523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="437995528"/>
-        <c:axId val="356392448"/>
+        <c:axId val="444755688"/>
+        <c:axId val="444755296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="437995528"/>
+        <c:axId val="444755688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356392448"/>
+        <c:crossAx val="444755296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -592,7 +592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="356392448"/>
+        <c:axId val="444755296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -649,7 +649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="437995528"/>
+        <c:crossAx val="444755688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1126,11 +1126,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="434494032"/>
-        <c:axId val="432166808"/>
+        <c:axId val="444752944"/>
+        <c:axId val="444753336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="434494032"/>
+        <c:axId val="444752944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,7 +1187,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432166808"/>
+        <c:crossAx val="444753336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1195,7 +1195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432166808"/>
+        <c:axId val="444753336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1252,7 +1252,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434494032"/>
+        <c:crossAx val="444752944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1742,11 +1742,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="585282800"/>
-        <c:axId val="435975392"/>
+        <c:axId val="120992000"/>
+        <c:axId val="120992392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="585282800"/>
+        <c:axId val="120992000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1803,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435975392"/>
+        <c:crossAx val="120992392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435975392"/>
+        <c:axId val="120992392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585282800"/>
+        <c:crossAx val="120992000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2117,6 +2117,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7696205444650499E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7642563067551398E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1330622932728099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.98984517354983E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15861266467254601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.183654132328229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17030498676467601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13482891093008201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5101606042589895E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8965921067283399E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4646512489416602E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7531314743905499E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3562903341771692E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7493740857286102E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.46858369311431E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2684042790550599E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5795954927332299E-4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>7.5404560763825401E-5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>-7.3403953628314799E-5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>1.04262905846752E-5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2210,8 +2270,68 @@
             <c:numRef>
               <c:f>Sheet1!$F$44:$F$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3.3271539837187398E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6821219812612699E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>4.4673526106635102E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.13194398512132399</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.194197487318888</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.20706761057954201</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.17431522102560801</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.11839682853315001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>7.1143180772196501E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.4569325143820599E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.6330616257619099E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>4.8094168523675701E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.3933877291710801E-3</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.82814153686194E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>-1.0424765656580299E-4</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>-4.8637920917826699E-4</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>-1.02724204452897E-3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>-1.28382995228548E-4</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>-5.6372794347225798E-4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>2.91722247311554E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2225,11 +2345,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="591454888"/>
-        <c:axId val="591455672"/>
+        <c:axId val="120992784"/>
+        <c:axId val="120993176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="591454888"/>
+        <c:axId val="120992784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2286,7 +2406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591455672"/>
+        <c:crossAx val="120993176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2294,7 +2414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="591455672"/>
+        <c:axId val="120993176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2351,7 +2471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591454888"/>
+        <c:crossAx val="120992784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2600,6 +2720,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.25127209079801E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4232883691183801E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1115084522025399E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.140414376328408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16793822148247201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.168248105073871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.142093944501539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.106265222858382</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2624278567218398E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4431085028463699E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5807091477417901E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.34923242776494E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9289933303480203E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5202756889702799E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.51223111924991E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5159250769065595E-4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>9.9162697551946594E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2695,6 +2875,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7696205444650499E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7642563067551398E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1330622932728099E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.98984517354983E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15861266467254601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.183654132328229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17030498676467601</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13482891093008201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5101606042589895E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8965921067283399E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4646512489416602E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7531314743905499E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3562903341771692E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7493740857286102E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.46858369311431E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.2684042790550599E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5795954927332299E-4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>7.5404560763825401E-5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>-7.3403953628314799E-5</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>1.04262905846752E-5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2708,11 +2948,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="591453320"/>
-        <c:axId val="591453712"/>
+        <c:axId val="359094928"/>
+        <c:axId val="359101200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="591453320"/>
+        <c:axId val="359094928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +3009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591453712"/>
+        <c:crossAx val="359101200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2777,7 +3017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="591453712"/>
+        <c:axId val="359101200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2834,7 +3074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591453320"/>
+        <c:crossAx val="359094928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3096,6 +3336,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.92864197865128E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.03039306402206E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9197224238887401E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.137099438114091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.178064088977407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.158242484380025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.134786917711608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7456227231304995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4661380785983E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4598612526897299E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1803765906952301E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.15626032929867E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3036008826456899E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9108024733141E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3189,8 +3489,68 @@
             <c:numRef>
               <c:f>Sheet1!$F$44:$F$63</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3.3271539837187398E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6821219812612699E-5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>4.4673526106635102E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.13194398512132399</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>0.194197487318888</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.20706761057954201</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.17431522102560801</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.11839682853315001</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>7.1143180772196501E-2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>3.4569325143820599E-2</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.6330616257619099E-2</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>4.8094168523675701E-3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>2.3933877291710801E-3</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>1.82814153686194E-3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>-1.0424765656580299E-4</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>-4.8637920917826699E-4</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>-1.02724204452897E-3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>-1.28382995228548E-4</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>-5.6372794347225798E-4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>2.91722247311554E-4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3204,11 +3564,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="591454496"/>
-        <c:axId val="439707224"/>
+        <c:axId val="307055912"/>
+        <c:axId val="121805032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="591454496"/>
+        <c:axId val="307055912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3265,7 +3625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439707224"/>
+        <c:crossAx val="121805032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3273,7 +3633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439707224"/>
+        <c:axId val="121805032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,7 +3690,610 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591454496"/>
+        <c:crossAx val="307055912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>3 micron target vs. 5 micron target</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3 micron target</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.25127209079801E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4232883691183801E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1115084522025399E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.140414376328408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16793822148247201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.168248105073871</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.142093944501539</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.106265222858382</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2624278567218398E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4431085028463699E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5807091477417901E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.34923242776494E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9289933303480203E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5202756889702799E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.51223111924991E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5159250769065595E-4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>9.9162697551946594E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5 micron target</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.92864197865128E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.03039306402206E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9197224238887401E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.137099438114091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.178064088977407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.158242484380025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.134786917711608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.7456227231304995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4661380785983E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4598612526897299E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1803765906952301E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.15626032929867E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3036008826456899E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9108024733141E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="584679600"/>
+        <c:axId val="433521552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="584679600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433521552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="433521552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584679600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3651,6 +4614,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6232,6 +7235,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6935,6 +8454,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7203,8 +8752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7220,16 +8769,16 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7662,16 +9211,16 @@
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="2" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -7697,161 +9246,400 @@
       <c r="A44">
         <v>0</v>
       </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1.7696205444650499E-4</v>
+      </c>
       <c r="D44">
         <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>3.3271539837187398E-4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
+      <c r="B45">
+        <v>7.25127209079801E-4</v>
+      </c>
+      <c r="C45">
+        <v>4.7642563067551398E-4</v>
+      </c>
       <c r="D45">
         <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.6821219812612699E-5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
+      <c r="B46">
+        <v>2.4232883691183801E-2</v>
+      </c>
+      <c r="C46">
+        <v>3.1330622932728099E-2</v>
+      </c>
       <c r="D46">
         <v>2</v>
+      </c>
+      <c r="E46">
+        <v>7.92864197865128E-3</v>
+      </c>
+      <c r="F46">
+        <v>4.4673526106635102E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>3</v>
       </c>
+      <c r="B47">
+        <v>8.1115084522025399E-2</v>
+      </c>
+      <c r="C47">
+        <v>9.98984517354983E-2</v>
+      </c>
       <c r="D47">
         <v>3</v>
+      </c>
+      <c r="E47">
+        <v>4.03039306402206E-2</v>
+      </c>
+      <c r="F47">
+        <v>0.13194398512132399</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4</v>
       </c>
+      <c r="B48">
+        <v>0.140414376328408</v>
+      </c>
+      <c r="C48">
+        <v>0.15861266467254601</v>
+      </c>
       <c r="D48">
         <v>4</v>
       </c>
+      <c r="E48">
+        <v>8.9197224238887401E-2</v>
+      </c>
+      <c r="F48">
+        <v>0.194197487318888</v>
+      </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>5</v>
       </c>
+      <c r="B49">
+        <v>0.16793822148247201</v>
+      </c>
+      <c r="C49">
+        <v>0.183654132328229</v>
+      </c>
       <c r="D49">
         <v>5</v>
       </c>
+      <c r="E49">
+        <v>0.137099438114091</v>
+      </c>
+      <c r="F49">
+        <v>0.20706761057954201</v>
+      </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>6</v>
       </c>
+      <c r="B50">
+        <v>0.168248105073871</v>
+      </c>
+      <c r="C50">
+        <v>0.17030498676467601</v>
+      </c>
       <c r="D50">
         <v>6</v>
       </c>
+      <c r="E50">
+        <v>0.178064088977407</v>
+      </c>
+      <c r="F50">
+        <v>0.17431522102560801</v>
+      </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>7</v>
       </c>
+      <c r="B51">
+        <v>0.142093944501539</v>
+      </c>
+      <c r="C51">
+        <v>0.13482891093008201</v>
+      </c>
       <c r="D51">
         <v>7</v>
       </c>
+      <c r="E51">
+        <v>0.158242484380025</v>
+      </c>
+      <c r="F51">
+        <v>0.11839682853315001</v>
+      </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>8</v>
       </c>
+      <c r="B52">
+        <v>0.106265222858382</v>
+      </c>
+      <c r="C52">
+        <v>9.5101606042589895E-2</v>
+      </c>
       <c r="D52">
         <v>8</v>
       </c>
+      <c r="E52">
+        <v>0.134786917711608</v>
+      </c>
+      <c r="F52">
+        <v>7.1143180772196501E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>9</v>
       </c>
+      <c r="B53">
+        <v>7.2624278567218398E-2</v>
+      </c>
+      <c r="C53">
+        <v>5.8965921067283399E-2</v>
+      </c>
       <c r="D53">
         <v>9</v>
       </c>
+      <c r="E53">
+        <v>9.7456227231304995E-2</v>
+      </c>
+      <c r="F53">
+        <v>3.4569325143820599E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10</v>
       </c>
+      <c r="B54">
+        <v>4.4431085028463699E-2</v>
+      </c>
+      <c r="C54">
+        <v>3.4646512489416602E-2</v>
+      </c>
       <c r="D54">
         <v>10</v>
       </c>
+      <c r="E54">
+        <v>7.4661380785983E-2</v>
+      </c>
+      <c r="F54">
+        <v>1.6330616257619099E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>11</v>
       </c>
+      <c r="B55">
+        <v>2.5807091477417901E-2</v>
+      </c>
+      <c r="C55">
+        <v>1.7531314743905499E-2</v>
+      </c>
       <c r="D55">
         <v>11</v>
       </c>
+      <c r="E55">
+        <v>4.4598612526897299E-2</v>
+      </c>
+      <c r="F55">
+        <v>4.8094168523675701E-3</v>
+      </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12</v>
       </c>
+      <c r="B56">
+        <v>1.34923242776494E-2</v>
+      </c>
+      <c r="C56">
+        <v>8.3562903341771692E-3</v>
+      </c>
       <c r="D56">
         <v>12</v>
       </c>
+      <c r="E56">
+        <v>2.1803765906952301E-2</v>
+      </c>
+      <c r="F56">
+        <v>2.3933877291710801E-3</v>
+      </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>13</v>
       </c>
+      <c r="B57">
+        <v>6.9289933303480203E-3</v>
+      </c>
+      <c r="C57">
+        <v>3.7493740857286102E-3</v>
+      </c>
       <c r="D57">
         <v>13</v>
       </c>
+      <c r="E57">
+        <v>1.15626032929867E-2</v>
+      </c>
+      <c r="F57">
+        <v>1.82814153686194E-3</v>
+      </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>14</v>
       </c>
+      <c r="B58">
+        <v>3.5202756889702799E-3</v>
+      </c>
+      <c r="C58">
+        <v>1.46858369311431E-3</v>
+      </c>
       <c r="D58">
         <v>14</v>
       </c>
+      <c r="E58">
+        <v>3.3036008826456899E-3</v>
+      </c>
+      <c r="F58">
+        <v>-1.0424765656580299E-4</v>
+      </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>15</v>
       </c>
+      <c r="B59">
+        <v>1.51223111924991E-3</v>
+      </c>
+      <c r="C59">
+        <v>6.2684042790550599E-4</v>
+      </c>
       <c r="D59">
         <v>15</v>
       </c>
+      <c r="E59">
+        <v>9.9108024733141E-4</v>
+      </c>
+      <c r="F59">
+        <v>-4.8637920917826699E-4</v>
+      </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>16</v>
       </c>
+      <c r="B60">
+        <v>5.5159250769065595E-4</v>
+      </c>
+      <c r="C60">
+        <v>2.5795954927332299E-4</v>
+      </c>
       <c r="D60">
         <v>16</v>
       </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>-1.02724204452897E-3</v>
+      </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>17</v>
       </c>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1">
+        <v>9.9162697551946594E-5</v>
+      </c>
+      <c r="C61" s="1">
+        <v>7.5404560763825401E-5</v>
+      </c>
       <c r="D61">
         <v>17</v>
       </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>-1.28382995228548E-4</v>
+      </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18</v>
       </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>-7.3403953628314799E-5</v>
+      </c>
       <c r="D62">
         <v>18</v>
       </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>-5.6372794347225798E-4</v>
+      </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>19</v>
       </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.04262905846752E-5</v>
+      </c>
       <c r="D63">
         <v>19</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2.91722247311554E-4</v>
       </c>
     </row>
   </sheetData>
